--- a/biology/Botanique/Árbol_del_Tule/Árbol_del_Tule.xlsx
+++ b/biology/Botanique/Árbol_del_Tule/Árbol_del_Tule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%81rbol_del_Tule</t>
+          <t>Árbol_del_Tule</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 El Árbol del Tule (« l'arbre du Tule » en espagnol) est un très gros et très ancien arbre remarquable situé devant l'église de Santa María del Tule dans l'État mexicain d'Oaxaca, à environ 13 km de la ville d'Oaxaca de Juárez sur la route de Mitla. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%81rbol_del_Tule</t>
+          <t>Árbol_del_Tule</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il mesure 41 mètres de haut et une circonférence de 42 mètres[1]. Le diamètre de son tronc, mesuré à 1,5 m de hauteur, fait 14,4 mètres.
-Son âge précis est inconnu. Les estimations vont de 1200 à 3000 ans[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il mesure 41 mètres de haut et une circonférence de 42 mètres. Le diamètre de son tronc, mesuré à 1,5 m de hauteur, fait 14,4 mètres.
+Son âge précis est inconnu. Les estimations vont de 1200 à 3000 ans.
 Selon une légende locale Zapotèque, il aurait été planté il y environ 1400 ans par Pechocha, un prêtre d'Ehecatl, le dieu du vent des Aztèques ; le fait qu'il se trouve sur un site sacré, occupé plus tard par une église catholique, tendrait à renforcer cette légende.
 L'arbre est surnommé l'« Arbre de la Vie » en raison de toutes les représentations d'animaux qui sont reconnaissables sur son tronc noueux.
 </t>
